--- a/Scripts/register_users.xlsx
+++ b/Scripts/register_users.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2100"/>
+  <dimension ref="A1:A2110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1784" sqref="A1784:A1804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10863,6 +10863,56 @@
     <row r="2100" spans="1:1">
       <c r="A2100">
         <v>14700002100</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1">
+      <c r="A2101">
+        <v>18502312254</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:1">
+      <c r="A2102">
+        <v>17345628457</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:1">
+      <c r="A2103">
+        <v>18349536232</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:1">
+      <c r="A2104">
+        <v>18024568523</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1">
+      <c r="A2105">
+        <v>17759642258</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1">
+      <c r="A2106">
+        <v>15954056388</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1">
+      <c r="A2107">
+        <v>17645852357</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1">
+      <c r="A2108">
+        <v>18452365958</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:1">
+      <c r="A2109">
+        <v>18632549965</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:1">
+      <c r="A2110">
+        <v>17456842579</v>
       </c>
     </row>
   </sheetData>
